--- a/src/assets/Template Excel/Layout_Detail_Delivery_Schedule.xlsx
+++ b/src/assets/Template Excel/Layout_Detail_Delivery_Schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SRI Projek\SRI FE\Terbaru 23-11-2024\sri_monthly_planning_fe\src\assets\Template Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56EAA153-17AB-4863-A2A6-C5182AD81F8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5B1A9ED-D23F-4263-A8D1-7FEC8F53C29A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1860" yWindow="1860" windowWidth="14400" windowHeight="7810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DDeliverySchedule Data" sheetId="1" r:id="rId1"/>
@@ -25,9 +25,6 @@
     <t>DETAIL_DS_ID</t>
   </si>
   <si>
-    <t>DELIVERYSCHEDULE_ID</t>
-  </si>
-  <si>
     <t>PART_NUM</t>
   </si>
   <si>
@@ -38,6 +35,9 @@
   </si>
   <si>
     <t>NO</t>
+  </si>
+  <si>
+    <t>DELIVERYSCHEDULE</t>
   </si>
 </sst>
 </file>
@@ -434,7 +434,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -444,22 +444,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>3</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
